--- a/PLR/Resultado_Avos_2025 Editada.xlsx
+++ b/PLR/Resultado_Avos_2025 Editada.xlsx
@@ -8,20 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaorocha\Desktop\Py\PLR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61AAF7FE-8B7A-404A-AAE9-74383447B2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA8FD93-A319-4B88-8FA0-B064C9F481BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-23025" yWindow="3315" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Avos Base" sheetId="1" r:id="rId1"/>
     <sheet name="Dados" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="101">
   <si>
     <t>Chapa</t>
   </si>
@@ -318,19 +331,31 @@
   </si>
   <si>
     <t>K92.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>dias</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -353,8 +378,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,6 +403,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -449,7 +488,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -458,43 +497,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -507,40 +546,52 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -573,7 +624,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>979716</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>217714</xdr:rowOff>
+      <xdr:rowOff>56030</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -604,7 +655,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="3116037" cy="680357"/>
+          <a:ext cx="3108834" cy="504265"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1010,13 +1061,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" style="34" bestFit="1" customWidth="1"/>
@@ -1027,32 +1078,37 @@
     <col min="7" max="7" width="17.85546875" style="35" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.7109375" style="30" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" style="36" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26.85546875" style="34" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.42578125" style="30" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.140625" style="30" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="30" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
       <c r="E1" s="23"/>
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
       <c r="I1" s="23"/>
+      <c r="J1" s="36"/>
       <c r="K1" s="22"/>
-    </row>
-    <row r="2" spans="1:12" s="21" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="21" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="I2" s="23"/>
+      <c r="J2" s="36"/>
       <c r="K2" s="22"/>
     </row>
-    <row r="3" spans="1:12" s="26" customFormat="1" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="26" customFormat="1" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
@@ -1080,7 +1136,7 @@
       <c r="I3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="37" t="s">
         <v>9</v>
       </c>
       <c r="K3" s="24" t="s">
@@ -1089,8 +1145,11 @@
       <c r="L3" s="24" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <v>7010</v>
       </c>
@@ -1116,7 +1175,7 @@
         <v>15</v>
       </c>
       <c r="I4" s="29"/>
-      <c r="J4" s="27">
+      <c r="J4" s="38">
         <v>16</v>
       </c>
       <c r="K4" s="28" t="s">
@@ -1125,8 +1184,12 @@
       <c r="L4" s="27">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="30">
+        <f>(G4-F4)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>7481</v>
       </c>
@@ -1152,7 +1215,7 @@
         <v>20</v>
       </c>
       <c r="I5" s="33"/>
-      <c r="J5" s="31">
+      <c r="J5" s="39">
         <v>34</v>
       </c>
       <c r="K5" s="32" t="s">
@@ -1161,8 +1224,12 @@
       <c r="L5" s="31">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="30">
+        <f>(G5-F5)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>7684</v>
       </c>
@@ -1188,7 +1255,7 @@
         <v>23</v>
       </c>
       <c r="I6" s="33"/>
-      <c r="J6" s="31">
+      <c r="J6" s="39">
         <v>28</v>
       </c>
       <c r="K6" s="32" t="s">
@@ -1197,8 +1264,12 @@
       <c r="L6" s="31">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="30">
+        <f>(G6-F6)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>9064</v>
       </c>
@@ -1226,7 +1297,7 @@
       <c r="I7" s="33">
         <v>45721</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J7" s="39">
         <v>40</v>
       </c>
       <c r="K7" s="32" t="s">
@@ -1235,8 +1306,12 @@
       <c r="L7" s="31">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="30">
+        <f>I7-F7</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>9616</v>
       </c>
@@ -1262,7 +1337,7 @@
         <v>30</v>
       </c>
       <c r="I8" s="33"/>
-      <c r="J8" s="31">
+      <c r="J8" s="39">
         <v>24</v>
       </c>
       <c r="K8" s="32" t="s">
@@ -1271,8 +1346,12 @@
       <c r="L8" s="31">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="30">
+        <f>G8-F8</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>9733</v>
       </c>
@@ -1298,7 +1377,7 @@
         <v>32</v>
       </c>
       <c r="I9" s="33"/>
-      <c r="J9" s="31">
+      <c r="J9" s="39">
         <v>36</v>
       </c>
       <c r="K9" s="32" t="s">
@@ -1307,8 +1386,12 @@
       <c r="L9" s="31">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="30">
+        <f>G9-F9</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>9739</v>
       </c>
@@ -1336,7 +1419,7 @@
       <c r="I10" s="33">
         <v>45733</v>
       </c>
-      <c r="J10" s="31">
+      <c r="J10" s="39">
         <v>64</v>
       </c>
       <c r="K10" s="32" t="s">
@@ -1345,8 +1428,12 @@
       <c r="L10" s="31">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="30">
+        <f>I10-F10</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>9799</v>
       </c>
@@ -1372,7 +1459,7 @@
         <v>36</v>
       </c>
       <c r="I11" s="33"/>
-      <c r="J11" s="31">
+      <c r="J11" s="39">
         <v>26</v>
       </c>
       <c r="K11" s="32" t="s">
@@ -1381,8 +1468,12 @@
       <c r="L11" s="31">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="30">
+        <f>G11-F11</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>10006</v>
       </c>
@@ -1410,7 +1501,7 @@
       <c r="I12" s="33">
         <v>45734</v>
       </c>
-      <c r="J12" s="31">
+      <c r="J12" s="39">
         <v>75</v>
       </c>
       <c r="K12" s="32" t="s">
@@ -1419,8 +1510,12 @@
       <c r="L12" s="31">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="30">
+        <f>I12-F12</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
         <v>10716</v>
       </c>
@@ -1446,7 +1541,7 @@
         <v>40</v>
       </c>
       <c r="I13" s="33"/>
-      <c r="J13" s="31">
+      <c r="J13" s="39">
         <v>59</v>
       </c>
       <c r="K13" s="32" t="s">
@@ -1455,8 +1550,12 @@
       <c r="L13" s="31">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="30">
+        <f>G13-F13</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>10825</v>
       </c>
@@ -1484,7 +1583,7 @@
       <c r="I14" s="33">
         <v>45729</v>
       </c>
-      <c r="J14" s="31">
+      <c r="J14" s="39">
         <v>38</v>
       </c>
       <c r="K14" s="32" t="s">
@@ -1493,8 +1592,12 @@
       <c r="L14" s="31">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="30">
+        <f>I14-F14</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
         <v>10902</v>
       </c>
@@ -1520,7 +1623,7 @@
         <v>46</v>
       </c>
       <c r="I15" s="33"/>
-      <c r="J15" s="31">
+      <c r="J15" s="39">
         <v>20</v>
       </c>
       <c r="K15" s="32" t="s">
@@ -1529,8 +1632,12 @@
       <c r="L15" s="31">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" s="30">
+        <f>G15-F15</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
         <v>11717</v>
       </c>
@@ -1556,7 +1663,7 @@
         <v>48</v>
       </c>
       <c r="I16" s="33"/>
-      <c r="J16" s="31">
+      <c r="J16" s="39">
         <v>18</v>
       </c>
       <c r="K16" s="32" t="s">
@@ -1565,8 +1672,12 @@
       <c r="L16" s="31">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" s="30">
+        <f t="shared" ref="M16:M17" si="0">G16-F16</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>12338</v>
       </c>
@@ -1592,7 +1703,7 @@
         <v>50</v>
       </c>
       <c r="I17" s="33"/>
-      <c r="J17" s="31">
+      <c r="J17" s="39">
         <v>54</v>
       </c>
       <c r="K17" s="32" t="s">
@@ -1601,8 +1712,12 @@
       <c r="L17" s="31">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="30">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
         <v>12429</v>
       </c>
@@ -1630,7 +1745,7 @@
       <c r="I18" s="33">
         <v>45741</v>
       </c>
-      <c r="J18" s="31">
+      <c r="J18" s="39">
         <v>65</v>
       </c>
       <c r="K18" s="32" t="s">
@@ -1639,8 +1754,12 @@
       <c r="L18" s="31">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" s="30">
+        <f>I18-F18</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
         <v>12583</v>
       </c>
@@ -1666,7 +1785,7 @@
         <v>54</v>
       </c>
       <c r="I19" s="33"/>
-      <c r="J19" s="31">
+      <c r="J19" s="39">
         <v>31</v>
       </c>
       <c r="K19" s="32" t="s">
@@ -1675,8 +1794,12 @@
       <c r="L19" s="31">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="30">
+        <f>G19-F19</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="31">
         <v>12701</v>
       </c>
@@ -1702,7 +1825,7 @@
         <v>56</v>
       </c>
       <c r="I20" s="33"/>
-      <c r="J20" s="31">
+      <c r="J20" s="39">
         <v>5</v>
       </c>
       <c r="K20" s="32" t="s">
@@ -1711,8 +1834,12 @@
       <c r="L20" s="31">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="30">
+        <f>G20-F20</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="31">
         <v>12789</v>
       </c>
@@ -1740,7 +1867,7 @@
       <c r="I21" s="33">
         <v>45691</v>
       </c>
-      <c r="J21" s="31">
+      <c r="J21" s="39">
         <v>17</v>
       </c>
       <c r="K21" s="32" t="s">
@@ -1749,8 +1876,12 @@
       <c r="L21" s="31">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" s="30">
+        <f>I21-F21</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="31">
         <v>12871</v>
       </c>
@@ -1778,7 +1909,7 @@
       <c r="I22" s="33">
         <v>45691</v>
       </c>
-      <c r="J22" s="31">
+      <c r="J22" s="39">
         <v>9</v>
       </c>
       <c r="K22" s="32" t="s">
@@ -1787,8 +1918,12 @@
       <c r="L22" s="31">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" s="30">
+        <f>I22-F22</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="31">
         <v>13061</v>
       </c>
@@ -1814,7 +1949,7 @@
         <v>38</v>
       </c>
       <c r="I23" s="33"/>
-      <c r="J23" s="31">
+      <c r="J23" s="39">
         <v>76</v>
       </c>
       <c r="K23" s="32" t="s">
@@ -1823,8 +1958,12 @@
       <c r="L23" s="31">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" s="30">
+        <f>G23-F23</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="31">
         <v>13534</v>
       </c>
@@ -1850,7 +1989,7 @@
         <v>64</v>
       </c>
       <c r="I24" s="33"/>
-      <c r="J24" s="31">
+      <c r="J24" s="39">
         <v>36</v>
       </c>
       <c r="K24" s="32" t="s">
@@ -1859,8 +1998,12 @@
       <c r="L24" s="31">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" s="30">
+        <f t="shared" ref="M24:M26" si="1">G24-F24</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="31">
         <v>13565</v>
       </c>
@@ -1886,7 +2029,7 @@
         <v>66</v>
       </c>
       <c r="I25" s="33"/>
-      <c r="J25" s="31">
+      <c r="J25" s="39">
         <v>29</v>
       </c>
       <c r="K25" s="32" t="s">
@@ -1895,8 +2038,12 @@
       <c r="L25" s="31">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" s="30">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="31">
         <v>13576</v>
       </c>
@@ -1922,7 +2069,7 @@
         <v>48</v>
       </c>
       <c r="I26" s="33"/>
-      <c r="J26" s="31">
+      <c r="J26" s="39">
         <v>35</v>
       </c>
       <c r="K26" s="32" t="s">
@@ -1931,8 +2078,12 @@
       <c r="L26" s="31">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" s="30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="31">
         <v>13656</v>
       </c>
@@ -1960,7 +2111,7 @@
       <c r="I27" s="33">
         <v>45705</v>
       </c>
-      <c r="J27" s="31">
+      <c r="J27" s="39">
         <v>45</v>
       </c>
       <c r="K27" s="32" t="s">
@@ -1969,8 +2120,12 @@
       <c r="L27" s="31">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" s="30">
+        <f>I27-F27</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="31">
         <v>13824</v>
       </c>
@@ -1996,7 +2151,7 @@
         <v>58</v>
       </c>
       <c r="I28" s="33"/>
-      <c r="J28" s="31">
+      <c r="J28" s="39">
         <v>38</v>
       </c>
       <c r="K28" s="32" t="s">
@@ -2005,8 +2160,12 @@
       <c r="L28" s="31">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28" s="30">
+        <f>G28-F28</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="31">
         <v>13960</v>
       </c>
@@ -2032,7 +2191,7 @@
         <v>73</v>
       </c>
       <c r="I29" s="33"/>
-      <c r="J29" s="31">
+      <c r="J29" s="39">
         <v>48</v>
       </c>
       <c r="K29" s="32" t="s">
@@ -2041,8 +2200,12 @@
       <c r="L29" s="31">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" s="30">
+        <f t="shared" ref="M29:M30" si="2">G29-F29</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="31">
         <v>14018</v>
       </c>
@@ -2068,7 +2231,7 @@
         <v>48</v>
       </c>
       <c r="I30" s="33"/>
-      <c r="J30" s="31">
+      <c r="J30" s="39">
         <v>14</v>
       </c>
       <c r="K30" s="32" t="s">
@@ -2077,8 +2240,12 @@
       <c r="L30" s="31">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" s="30">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="31">
         <v>14055</v>
       </c>
@@ -2106,7 +2273,7 @@
       <c r="I31" s="33">
         <v>45727</v>
       </c>
-      <c r="J31" s="31">
+      <c r="J31" s="39">
         <v>9</v>
       </c>
       <c r="K31" s="32" t="s">
@@ -2116,7 +2283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="31">
         <v>14170</v>
       </c>
@@ -2142,7 +2309,7 @@
         <v>78</v>
       </c>
       <c r="I32" s="33"/>
-      <c r="J32" s="31">
+      <c r="J32" s="39">
         <v>43</v>
       </c>
       <c r="K32" s="32" t="s">
@@ -2178,7 +2345,7 @@
         <v>80</v>
       </c>
       <c r="I33" s="33"/>
-      <c r="J33" s="31">
+      <c r="J33" s="39">
         <v>71</v>
       </c>
       <c r="K33" s="32" t="s">
@@ -2214,7 +2381,7 @@
         <v>83</v>
       </c>
       <c r="I34" s="33"/>
-      <c r="J34" s="31">
+      <c r="J34" s="39">
         <v>8</v>
       </c>
       <c r="K34" s="32" t="s">
@@ -2250,7 +2417,7 @@
         <v>85</v>
       </c>
       <c r="I35" s="33"/>
-      <c r="J35" s="31">
+      <c r="J35" s="39">
         <v>19</v>
       </c>
       <c r="K35" s="32" t="s">
@@ -2288,7 +2455,7 @@
       <c r="I36" s="33">
         <v>45680</v>
       </c>
-      <c r="J36" s="31">
+      <c r="J36" s="39">
         <v>22</v>
       </c>
       <c r="K36" s="32" t="s">
@@ -2324,7 +2491,7 @@
         <v>89</v>
       </c>
       <c r="I37" s="33"/>
-      <c r="J37" s="31">
+      <c r="J37" s="39">
         <v>34</v>
       </c>
       <c r="K37" s="32" t="s">
@@ -2360,7 +2527,7 @@
         <v>91</v>
       </c>
       <c r="I38" s="33"/>
-      <c r="J38" s="31">
+      <c r="J38" s="39">
         <v>90</v>
       </c>
       <c r="K38" s="32" t="s">
@@ -2396,7 +2563,7 @@
         <v>95</v>
       </c>
       <c r="I39" s="33"/>
-      <c r="J39" s="31">
+      <c r="J39" s="39">
         <v>7</v>
       </c>
       <c r="K39" s="32" t="s">
@@ -2434,7 +2601,7 @@
       <c r="I40" s="33">
         <v>45687</v>
       </c>
-      <c r="J40" s="31">
+      <c r="J40" s="39">
         <v>8</v>
       </c>
       <c r="K40" s="32" t="s">
@@ -2470,7 +2637,7 @@
         <v>98</v>
       </c>
       <c r="I41" s="33"/>
-      <c r="J41" s="31">
+      <c r="J41" s="39">
         <v>74</v>
       </c>
       <c r="K41" s="32" t="s">
@@ -2510,7 +2677,7 @@
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
